--- a/Projeto/Excel/WebScraping.xlsx
+++ b/Projeto/Excel/WebScraping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wendell.salves\Documents\UiPath\SenacWebScaping\Projeto\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daark\Documents\UiPath\WebScrappingExcelAutomationSenac\Projeto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145FC93-E29F-4BF5-9CA6-026E100537F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC732E6-0E09-4B4D-87AF-4AE22BD79CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColunaWIIDFormatada" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="286">
   <si>
     <t>Actions Url</t>
   </si>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,38 +3818,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7304FF26-CF8F-425C-BC18-EBD0D3932741}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3861,15 +3871,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3881,15 +3891,15 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -3901,15 +3911,15 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3921,15 +3931,15 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -3941,15 +3951,15 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3961,15 +3971,15 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -3981,15 +3991,15 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -4001,15 +4011,15 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -4021,15 +4031,15 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -4041,15 +4051,15 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -4061,15 +4071,15 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -4081,15 +4091,15 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -4101,15 +4111,15 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -4121,15 +4131,15 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -4141,15 +4151,15 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -4161,15 +4171,15 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -4181,6 +4191,26 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
         <v>265</v>
       </c>
     </row>
